--- a/outputs.xlsx
+++ b/outputs.xlsx
@@ -508,22 +508,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Surf Faschion</t>
+          <t>Ativa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/3/2005</t>
+          <t>(81) 3436-1480</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(81) 3436-1480</t>
+          <t>belmacmelo@gmail.com</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>belmacmelo@gmail.com, 2610707, Rua Correntes, 58, Janga, Paulista</t>
+          <t>Rua Correntes, 58, Janga, Paulista, PE, 53437-390</t>
         </is>
       </c>
     </row>
@@ -555,22 +555,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Motudo Pecas</t>
+          <t>Ativa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2/1/2021</t>
+          <t>(81) 8571-3222</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(81) 8571-3222</t>
+          <t>pauloshangaimotos@gmail.com</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2611606, Avenida Marechal Mascarenhas de Moraes, 4815, Imbiribeira, Recife, PE</t>
+          <t>Avenida Marechal Mascarenhas de Moraes, 4815, Imbiribeira, Recife, PE, 51150-000</t>
         </is>
       </c>
     </row>
@@ -649,19 +649,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ativa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2/22/2017</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>(81) 9963-3605</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>Avenida Bernardo Vieira de Melo, 1730, Casa 01 Cxpst 306, Piedade, Jaboatão dos Guararapes, PE</t>
@@ -748,17 +744,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Omissão De Declarações</t>
+          <t>(81) 8177-2863</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(81) 8177-2863</t>
+          <t>contato@gmail.com</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2611606, Rua Padre Oliveira, 786, Casa a, Alto Santa Terezinha, Recife</t>
+          <t>Rua Padre Oliveira, 786, Casa a, Alto Santa Terezinha, Recife, PE</t>
         </is>
       </c>
     </row>
@@ -842,17 +838,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Omissão De Declarações</t>
+          <t>(81) 3224-6508</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(81) 3224-6508</t>
+          <t>olinda@bravax.com.br</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2611606, Rua da Concordia, 499, Sao Jose, Recife, PE</t>
+          <t>Rua da Concordia, 499, Sao Jose, Recife, PE, 50020-055</t>
         </is>
       </c>
     </row>
